--- a/SchedulingData/dynamic11/pso/scheduling1_1.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_1.xlsx
@@ -466,36 +466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>61.6</v>
       </c>
       <c r="E2" t="n">
-        <v>26.28</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>60.28</v>
+        <v>49.12</v>
       </c>
       <c r="E3" t="n">
-        <v>26.152</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="4">
@@ -504,17 +504,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="D4" t="n">
-        <v>36.64</v>
+        <v>89.72</v>
       </c>
       <c r="E4" t="n">
-        <v>27.536</v>
+        <v>22.368</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>50.9</v>
       </c>
       <c r="E5" t="n">
-        <v>25.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>50.9</v>
       </c>
       <c r="D6" t="n">
-        <v>78.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>25.84</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="7">
@@ -561,36 +561,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>95.72</v>
+        <v>145.96</v>
       </c>
       <c r="E7" t="n">
-        <v>21.768</v>
+        <v>19.844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95.72</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.52</v>
+        <v>41.32</v>
       </c>
       <c r="E8" t="n">
-        <v>18.128</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>26.58</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>59</v>
+        <v>61.6</v>
       </c>
       <c r="D10" t="n">
-        <v>124.9</v>
+        <v>117.7</v>
       </c>
       <c r="E10" t="n">
-        <v>21.8</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>138.52</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>214.18</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>14.672</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78.09999999999999</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>134.86</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>21.784</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60.28</v>
+        <v>117.7</v>
       </c>
       <c r="D13" t="n">
-        <v>106.52</v>
+        <v>199.26</v>
       </c>
       <c r="E13" t="n">
-        <v>22.668</v>
+        <v>16.984</v>
       </c>
     </row>
     <row r="14">
@@ -698,184 +698,184 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>120.38</v>
+        <v>138.58</v>
       </c>
       <c r="E14" t="n">
-        <v>22.732</v>
+        <v>21.412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>214.18</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>275.18</v>
+        <v>146.88</v>
       </c>
       <c r="E15" t="n">
-        <v>10.192</v>
+        <v>18.272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36.64</v>
+        <v>146.88</v>
       </c>
       <c r="D16" t="n">
-        <v>85.16</v>
+        <v>199.48</v>
       </c>
       <c r="E16" t="n">
-        <v>23.324</v>
+        <v>14.632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>120.38</v>
+        <v>41.32</v>
       </c>
       <c r="D17" t="n">
-        <v>182.14</v>
+        <v>113.82</v>
       </c>
       <c r="E17" t="n">
-        <v>18.676</v>
+        <v>22.408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>106.52</v>
+        <v>113.82</v>
       </c>
       <c r="D18" t="n">
-        <v>165.22</v>
+        <v>169.76</v>
       </c>
       <c r="E18" t="n">
-        <v>19.908</v>
+        <v>18.924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>165.22</v>
+        <v>169.76</v>
       </c>
       <c r="D19" t="n">
-        <v>219.02</v>
+        <v>245.62</v>
       </c>
       <c r="E19" t="n">
-        <v>15.168</v>
+        <v>15.468</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>219.02</v>
+        <v>245.62</v>
       </c>
       <c r="D20" t="n">
-        <v>273.44</v>
+        <v>288.74</v>
       </c>
       <c r="E20" t="n">
-        <v>10.856</v>
+        <v>12.296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>85.16</v>
+        <v>199.48</v>
       </c>
       <c r="D21" t="n">
-        <v>150.46</v>
+        <v>257.74</v>
       </c>
       <c r="E21" t="n">
-        <v>19.424</v>
+        <v>11.896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>182.14</v>
+        <v>199.26</v>
       </c>
       <c r="D22" t="n">
-        <v>222.92</v>
+        <v>253.68</v>
       </c>
       <c r="E22" t="n">
-        <v>15.728</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>124.9</v>
+        <v>145.96</v>
       </c>
       <c r="D23" t="n">
-        <v>190.8</v>
+        <v>199.36</v>
       </c>
       <c r="E23" t="n">
-        <v>17.32</v>
+        <v>16.124</v>
       </c>
     </row>
     <row r="24">
@@ -884,36 +884,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>190.8</v>
+        <v>253.68</v>
       </c>
       <c r="D24" t="n">
-        <v>243.82</v>
+        <v>296.28</v>
       </c>
       <c r="E24" t="n">
-        <v>14.128</v>
+        <v>10.032</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>150.46</v>
+        <v>257.74</v>
       </c>
       <c r="D25" t="n">
-        <v>236.64</v>
+        <v>321.06</v>
       </c>
       <c r="E25" t="n">
-        <v>15.896</v>
+        <v>8.704000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.92</v>
+        <v>138.58</v>
       </c>
       <c r="D26" t="n">
-        <v>261.58</v>
+        <v>182.38</v>
       </c>
       <c r="E26" t="n">
-        <v>12.992</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>134.86</v>
+        <v>89.72</v>
       </c>
       <c r="D27" t="n">
-        <v>188.52</v>
+        <v>165.42</v>
       </c>
       <c r="E27" t="n">
-        <v>19.048</v>
+        <v>17.888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>243.82</v>
+        <v>182.38</v>
       </c>
       <c r="D28" t="n">
-        <v>296.74</v>
+        <v>244.14</v>
       </c>
       <c r="E28" t="n">
-        <v>10.956</v>
+        <v>14.596</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>236.64</v>
+        <v>165.42</v>
       </c>
       <c r="D29" t="n">
-        <v>279.44</v>
+        <v>220.96</v>
       </c>
       <c r="E29" t="n">
-        <v>13.256</v>
+        <v>15.424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>188.52</v>
+        <v>199.36</v>
       </c>
       <c r="D30" t="n">
-        <v>244.92</v>
+        <v>265.64</v>
       </c>
       <c r="E30" t="n">
-        <v>15.528</v>
+        <v>12.596</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>261.58</v>
+        <v>265.64</v>
       </c>
       <c r="D31" t="n">
-        <v>318.38</v>
+        <v>326.52</v>
       </c>
       <c r="E31" t="n">
-        <v>9.912000000000001</v>
+        <v>9.648</v>
       </c>
     </row>
   </sheetData>
